--- a/Week3/timesheet_Wei_Liu_317932.xlsx
+++ b/Week3/timesheet_Wei_Liu_317932.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>WE</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Doing researchs of questions in group discussion and share the knowledge</t>
+  </si>
+  <si>
+    <t>Talking about the topic of canvas which is related to bitcoin auction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed what we have done in this unit and find out the problems </t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1016,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1069,6 +1075,12 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44173</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1076,6 +1088,12 @@
       </c>
       <c r="B5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
